--- a/Source/Smejki/CD460pack01/RailVehicles/Electric/Common/Script/460_TCHedb.xlsx
+++ b/Source/Smejki/CD460pack01/RailVehicles/Electric/Common/Script/460_TCHedb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Train Simulator 2017\Source\CS_addon\Smejki\RailVehicles\Electric\460080\EngineScr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Games\Train Simulator 2017\Source\Smejki\CD460pack01\RailVehicles\Electric\Common\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -361,11 +361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="216292992"/>
-        <c:axId val="216293552"/>
+        <c:axId val="306216816"/>
+        <c:axId val="306217376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216292992"/>
+        <c:axId val="306216816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216293552"/>
+        <c:crossAx val="306217376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,7 +416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216293552"/>
+        <c:axId val="306217376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +467,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216292992"/>
+        <c:crossAx val="306216816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -777,11 +777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="295443504"/>
-        <c:axId val="295444064"/>
+        <c:axId val="306221296"/>
+        <c:axId val="306221856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295443504"/>
+        <c:axId val="306221296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +824,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295444064"/>
+        <c:crossAx val="306221856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -832,7 +832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295444064"/>
+        <c:axId val="306221856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +883,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295443504"/>
+        <c:crossAx val="306221296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,7 +897,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2414,7 +2413,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2494,7 @@
         <v>20.723404255319149</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
+        <f>($N$9+($N$8*H3))/(($N$10*H3)+$N$11)+$P$8</f>
         <v>21.23076923076923</v>
       </c>
       <c r="I2">

--- a/Source/Smejki/CD460pack01/RailVehicles/Electric/Common/Script/460_TCHedb.xlsx
+++ b/Source/Smejki/CD460pack01/RailVehicles/Electric/Common/Script/460_TCHedb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Games\Train Simulator 2017\Source\Smejki\CD460pack01\RailVehicles\Electric\Common\Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Steam\steamapps\common\RailWorks\Source\Smejki\CD460pack01\RailVehicles\Electric\Common\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Brzda1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>skutečná TrCH</t>
   </si>
@@ -71,12 +71,48 @@
   <si>
     <t>d = 20c</t>
   </si>
+  <si>
+    <t>současná TrCh</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +120,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -115,6 +157,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -180,10 +223,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Brzda1!$B$3:$N$3</c:f>
+              <c:f>Brzda1!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -222,16 +265,34 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Brzda1!$B$2:$N$2</c:f>
+              <c:f>Brzda1!$B$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14.727272727272727</c:v>
                 </c:pt>
@@ -270,6 +331,24 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>22.975609756097562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.149425287356323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.304347826086957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.443298969072167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.568627450980394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.682242990654206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.785714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,12 +381,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Brzda1!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Brzda1!$B$1:$N$1</c:f>
+              <c:f>Brzda1!$B$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -324,13 +469,13 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>22.5</c:v>
@@ -345,12 +490,190 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Brzda1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>současná TrCh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Brzda1!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Brzda1!$B$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>14.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.814814814814817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.297297297297298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.095238095238095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.723404255319149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.23076923076923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.649122807017545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.298507462686565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.779220779220779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.975609756097562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.149425287356323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.304347826086957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.443298969072167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.568627450980394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.682242990654206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.785714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -361,11 +684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306216816"/>
-        <c:axId val="306217376"/>
+        <c:axId val="112057008"/>
+        <c:axId val="114963008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306216816"/>
+        <c:axId val="112057008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +731,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306217376"/>
+        <c:crossAx val="114963008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,7 +739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306217376"/>
+        <c:axId val="114963008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +790,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306216816"/>
+        <c:crossAx val="112057008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -596,10 +919,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Brzda2!$B$3:$N$3</c:f>
+              <c:f>Brzda2!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -638,16 +961,34 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Brzda2!$B$2:$N$2</c:f>
+              <c:f>Brzda2!$B$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -686,6 +1027,24 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>55.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.368421052631575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.565217391304344</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,12 +1077,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Brzda2!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Brzda2!$B$1:$N$1</c:f>
+              <c:f>Brzda2!$B$1:$T$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -752,21 +1177,199 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Brzda2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>současná TrCh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Brzda2!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Brzda2!$B$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.53846153846154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.368421052631575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.565217391304344</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -777,11 +1380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306221296"/>
-        <c:axId val="306221856"/>
+        <c:axId val="114966368"/>
+        <c:axId val="114966928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306221296"/>
+        <c:axId val="114966368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +1427,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306221856"/>
+        <c:crossAx val="114966928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -832,7 +1435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306221856"/>
+        <c:axId val="114966928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +1486,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306221296"/>
+        <c:crossAx val="114966368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,6 +1500,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2410,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +3025,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2441,13 +3045,13 @@
         <v>20.5</v>
       </c>
       <c r="G1">
+        <v>21.2</v>
+      </c>
+      <c r="H1">
         <v>21.5</v>
       </c>
-      <c r="H1">
-        <v>22.5</v>
-      </c>
       <c r="I1">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="J1">
         <v>22.5</v>
@@ -2464,8 +3068,26 @@
       <c r="N1">
         <v>22.5</v>
       </c>
+      <c r="O1">
+        <v>22.5</v>
+      </c>
+      <c r="P1">
+        <v>22.5</v>
+      </c>
+      <c r="Q1">
+        <v>22.5</v>
+      </c>
+      <c r="R1">
+        <v>22.5</v>
+      </c>
+      <c r="S1">
+        <v>22.5</v>
+      </c>
+      <c r="T1">
+        <v>22.5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +3096,7 @@
         <v>14.727272727272727</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:N2" si="0">($N$9+($N$8*C3))/(($N$10*C3)+$N$11)+$P$8</f>
+        <f t="shared" ref="C2:T2" si="0">($N$9+($N$8*C3))/(($N$10*C3)+$N$11)+$P$8</f>
         <v>16.814814814814817</v>
       </c>
       <c r="D2">
@@ -2521,8 +3143,32 @@
         <f t="shared" si="0"/>
         <v>22.975609756097562</v>
       </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>23.149425287356323</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>23.304347826086957</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>23.443298969072167</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>23.568627450980394</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>23.682242990654206</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>23.785714285714285</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2565,8 +3211,110 @@
       <c r="N3">
         <v>80</v>
       </c>
+      <c r="O3">
+        <v>85</v>
+      </c>
+      <c r="P3">
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <v>95</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>105</v>
+      </c>
+      <c r="T3">
+        <v>110</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:M4" si="1" xml:space="preserve"> ((-250-(B3))/((B3)+2))+27</f>
+        <v>14.727272727272727</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>16.814814814814817</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>18.25</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>19.297297297297298</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>20.095238095238095</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>20.723404255319149</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>21.23076923076923</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>21.649122807017545</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>22.298507462686565</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>22.555555555555557</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>22.779220779220779</v>
+      </c>
+      <c r="N4" s="4">
+        <f xml:space="preserve"> ((-250-(N3))/((N3)+2))+27</f>
+        <v>22.975609756097562</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:T4" si="2" xml:space="preserve"> ((-250-(O3))/((O3)+2))+27</f>
+        <v>23.149425287356323</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="2"/>
+        <v>23.304347826086957</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="2"/>
+        <v>23.443298969072167</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="2"/>
+        <v>23.568627450980394</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="2"/>
+        <v>23.682242990654206</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="2"/>
+        <v>23.785714285714285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2580,7 +3328,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
       <c r="M9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +3339,10 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
       <c r="M10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2596,9 +3350,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>6</v>
@@ -2607,7 +3361,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
       <c r="M16" t="s">
         <v>9</v>
       </c>
@@ -2615,7 +3392,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
       <c r="M17" t="s">
         <v>4</v>
       </c>
@@ -2623,7 +3403,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
       <c r="M18" t="s">
         <v>10</v>
       </c>
@@ -2631,22 +3414,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:14" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:14" x14ac:dyDescent="0.25">
       <c r="M22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:14" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>14</v>
       </c>
@@ -2659,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +3453,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2702,10 +3485,10 @@
         <v>52</v>
       </c>
       <c r="K1">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="L1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1">
         <v>55</v>
@@ -2713,8 +3496,26 @@
       <c r="N1">
         <v>55</v>
       </c>
+      <c r="O1">
+        <v>55</v>
+      </c>
+      <c r="P1">
+        <v>55</v>
+      </c>
+      <c r="Q1">
+        <v>55</v>
+      </c>
+      <c r="R1">
+        <v>55</v>
+      </c>
+      <c r="S1">
+        <v>55</v>
+      </c>
+      <c r="T1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2723,7 +3524,7 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:N2" si="0">($N$9+($N$8*C3))/(($N$10*C3)+$N$11)+$P$8</f>
+        <f t="shared" ref="C2:T2" si="0">($N$9+($N$8*C3))/(($N$10*C3)+$N$11)+$P$8</f>
         <v>34.714285714285715</v>
       </c>
       <c r="D2">
@@ -2770,8 +3571,32 @@
         <f t="shared" si="0"/>
         <v>55.666666666666671</v>
       </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>56.368421052631575</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>57.571428571428569</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>58.090909090909093</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>58.565217391304344</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2814,8 +3639,107 @@
       <c r="N3">
         <v>80</v>
       </c>
+      <c r="O3">
+        <v>85</v>
+      </c>
+      <c r="P3">
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <v>95</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>105</v>
+      </c>
+      <c r="T3">
+        <v>110</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <f xml:space="preserve"> ((-250-(B3))/((0.2*(B3))+2))+74</f>
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:T4" si="1" xml:space="preserve"> ((-250-(C3))/((0.2*(C3))+2))+74</f>
+        <v>34.714285714285715</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>42.333333333333329</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>47.181818181818187</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>50.53846153846154</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>51.857142857142861</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>54.882352941176471</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>55.666666666666671</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>56.368421052631575</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="1"/>
+        <v>57.571428571428569</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="1"/>
+        <v>58.090909090909093</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="1"/>
+        <v>58.565217391304344</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2829,7 +3753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +3761,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +3769,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>9</v>
       </c>
@@ -2902,6 +3826,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>